--- a/Documentation/User Acceptance Tests.xlsx
+++ b/Documentation/User Acceptance Tests.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://temahau-my.sharepoint.com/personal/bertoe1_student_eit_ac_nz/Documents/UNI/Agile Projects/Iteration 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://temahau-my.sharepoint.com/personal/bertoe1_student_eit_ac_nz/Documents/UNI/Agile Projects/Git/Simple Website/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="13_ncr:1_{265CCAA5-7EEB-4F1E-B2E0-1BA8C5432BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77EB42F6-0D6E-447B-81BF-0070B197BA71}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="13_ncr:1_{265CCAA5-7EEB-4F1E-B2E0-1BA8C5432BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73611B37-76A9-4413-A46B-B13C79956B98}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>When the user clicks on the Instagram icon, it takes them to Timups Instagram page</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t xml:space="preserve">When the user clicks on "Order" page, then previous orders are displayed </t>
@@ -121,10 +118,22 @@
     </r>
   </si>
   <si>
-    <t>"Read More" button hasn't been implemented and instead it brings you back to the Homepage</t>
-  </si>
-  <si>
     <t>Navigation to Homepage</t>
+  </si>
+  <si>
+    <t>Application: Timups Website</t>
+  </si>
+  <si>
+    <t>"Read More" button hasn't been implemented and instead it reloads the same "About Us" page</t>
+  </si>
+  <si>
+    <t>Timups logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This has been tested from every single page developped and has worked from all of them </t>
+  </si>
+  <si>
+    <t>When the user clicks on Timups logo, then it brings them back to the Homepage</t>
   </si>
 </sst>
 </file>
@@ -450,7 +459,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -470,7 +479,7 @@
         <v>9</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -518,13 +527,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
@@ -541,7 +550,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>7</v>
@@ -558,10 +567,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -578,7 +587,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -586,19 +595,35 @@
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="11" spans="1:5" ht="49.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
